--- a/data/data_T2.xlsx
+++ b/data/data_T2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\מסמכים\ASE_audio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autism\ASD_estimation_Marina\Code\ASDSpeech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40C7A9-E6E9-4147-9CB4-238F0992A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,8 +369,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,32 +705,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="3.21875" customWidth="1"/>
+    <col min="9" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
@@ -773,8 +772,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -817,8 +816,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
@@ -861,8 +860,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
@@ -905,8 +904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
@@ -949,8 +948,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
@@ -993,8 +992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
@@ -1037,8 +1036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
@@ -1081,8 +1080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
@@ -1125,8 +1124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
@@ -1169,8 +1168,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
@@ -1213,8 +1212,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
@@ -1257,8 +1256,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
@@ -1301,8 +1300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B14" t="s">
@@ -1345,8 +1344,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B15" t="s">
@@ -1389,8 +1388,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B16" t="s">
@@ -1433,8 +1432,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
@@ -1477,8 +1476,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
@@ -1521,8 +1520,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1565,8 +1564,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -1609,8 +1608,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -1653,8 +1652,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
@@ -1697,8 +1696,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
@@ -1741,8 +1740,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B24" t="s">
@@ -1785,8 +1784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B25" t="s">
@@ -1829,8 +1828,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B26" t="s">
@@ -1873,8 +1872,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B27" t="s">
@@ -1917,8 +1916,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
@@ -1961,8 +1960,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B29" t="s">
@@ -2005,8 +2004,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B30" t="s">
@@ -2049,8 +2048,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B31" t="s">
@@ -2093,8 +2092,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B32" t="s">
@@ -2137,8 +2136,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B33" t="s">
@@ -2181,8 +2180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B34" t="s">
@@ -2225,8 +2224,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B35" t="s">
@@ -2269,8 +2268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B36" t="s">
@@ -2313,8 +2312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B37" t="s">
@@ -2357,8 +2356,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B38" t="s">
@@ -2401,8 +2400,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
@@ -2445,8 +2444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B40" t="s">
@@ -2489,8 +2488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B41" t="s">
@@ -2533,8 +2532,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B42" t="s">
@@ -2577,8 +2576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
@@ -2621,8 +2620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
@@ -2665,8 +2664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
@@ -2709,8 +2708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B46" t="s">
@@ -2753,8 +2752,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B47" t="s">
@@ -2797,8 +2796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B48" t="s">
@@ -2841,8 +2840,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B49" t="s">
@@ -2885,8 +2884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B50" t="s">
@@ -2929,8 +2928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B51" t="s">
@@ -2973,8 +2972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B52" t="s">
@@ -3017,8 +3016,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
@@ -3061,8 +3060,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" t="s">
@@ -3105,8 +3104,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B55" t="s">
@@ -3149,8 +3148,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B56" t="s">
@@ -3193,8 +3192,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B57" t="s">
@@ -3237,8 +3236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B58" t="s">
@@ -3281,8 +3280,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B59" t="s">
@@ -3325,8 +3324,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B60" t="s">
@@ -3369,8 +3368,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B61" t="s">
@@ -3413,8 +3412,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B62" t="s">
@@ -3459,5 +3458,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6 A24 A36" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/data_T2.xlsx
+++ b/data/data_T2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autism\ASD_estimation_Marina\Code\ASDSpeech\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinamu\Documents\ASE_audio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Gender</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>RRB_CSS</t>
-  </si>
-  <si>
-    <t>IM_Echo</t>
-  </si>
-  <si>
-    <t>DL_Echo</t>
   </si>
   <si>
     <t>E2</t>
@@ -343,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -706,13 +700,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -722,15 +716,15 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -765,16 +759,10 @@
       <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -801,24 +789,18 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -848,21 +830,15 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -889,24 +865,18 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -933,24 +903,18 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -980,21 +944,15 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1021,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1029,16 +987,10 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1065,24 +1017,18 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1112,21 +1058,15 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1153,24 +1093,18 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1203,18 +1137,12 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1241,24 +1169,18 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1288,21 +1210,15 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1332,21 +1248,15 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1373,24 +1283,18 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1420,21 +1324,15 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1461,24 +1359,18 @@
         <v>8</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1508,21 +1400,15 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1549,24 +1435,18 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1596,21 +1476,15 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1637,24 +1511,18 @@
         <v>6</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1684,21 +1552,15 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1725,24 +1587,18 @@
         <v>8</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1769,24 +1625,18 @@
         <v>7</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1813,24 +1663,18 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -1857,24 +1701,18 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1901,24 +1739,18 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1945,24 +1777,18 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1989,24 +1815,18 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>2</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -2036,21 +1856,15 @@
         <v>2</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -2077,24 +1891,18 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -2121,24 +1929,18 @@
         <v>7</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2168,21 +1970,15 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -2212,21 +2008,15 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>3</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2256,21 +2046,15 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>3</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -2300,21 +2084,15 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2341,24 +2119,18 @@
         <v>7</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -2385,24 +2157,18 @@
         <v>8</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2432,21 +2198,15 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2481,16 +2241,10 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2517,24 +2271,18 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -2561,24 +2309,18 @@
         <v>10</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2605,24 +2347,18 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -2652,21 +2388,15 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <v>3</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2696,21 +2426,15 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -2740,21 +2464,15 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -2784,21 +2502,15 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -2825,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2833,16 +2545,10 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -2872,21 +2578,15 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49">
-        <v>3</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -2916,21 +2616,15 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -2957,24 +2651,18 @@
         <v>8</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -3001,24 +2689,18 @@
         <v>7</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -3045,24 +2727,18 @@
         <v>9</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
@@ -3089,24 +2765,18 @@
         <v>9</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -3133,24 +2803,18 @@
         <v>9</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -3177,24 +2841,18 @@
         <v>9</v>
       </c>
       <c r="J56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -3229,16 +2887,10 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
@@ -3273,16 +2925,10 @@
       <c r="L58">
         <v>2</v>
       </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
@@ -3309,24 +2955,18 @@
         <v>10</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -3353,24 +2993,18 @@
         <v>9</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
@@ -3397,24 +3031,18 @@
         <v>7</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -3441,18 +3069,12 @@
         <v>8</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
         <v>1</v>
       </c>
     </row>
